--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820694.258301462</v>
+        <v>3816389.918491595</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7402984.374560698</v>
+        <v>7402984.374560699</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.3187035390023</v>
       </c>
       <c r="H2" t="n">
-        <v>225.1346772411289</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>61.11429931023407</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -788,25 +788,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5981288405182</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.71869042656722</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>203.4628625222737</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>97.26234557100804</v>
+        <v>72.63544656439291</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>119.0024454215933</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>56.6288342570102</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.0451464286234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.6675559165699</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>237.1780866163251</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>18.4733505966156</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098993</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.56536091362955</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>23.91773138700864</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.43112068613158</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550273</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.27601060788857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>108.9501037550972</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>52.21533522728818</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>78.6882778203391</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>101.1785556175222</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881282</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>242.7989073183574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695592</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>73.22341869628524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444138</v>
@@ -3319,10 +3319,10 @@
         <v>83.70251495695535</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.752258470135</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515516</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>235.9082110508597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>174.9740119554616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.73433514020032</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.62253010341789</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127976</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4151888127976</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127976</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127976</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4696880635942</v>
+        <v>159.1024872545643</v>
       </c>
       <c r="G2" t="n">
-        <v>248.5058752901497</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515906</v>
@@ -4342,10 +4342,10 @@
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471538</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799757</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799757</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799757</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127976</v>
+        <v>432.4256445709457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>511.6095907665415</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
         <v>165.9467308776107</v>
@@ -4406,28 +4406,28 @@
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>478.451922227869</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1033.895263646635</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>837.0861852780728</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>608.9503393148863</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>373.7982310831435</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>373.7982310831435</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>165.9467308776107</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.0368194650771</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="C4" t="n">
-        <v>291.3714755998577</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3714755998577</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3714755998577</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>849.337477054233</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>849.337477054233</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>582.959820487055</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="W4" t="n">
-        <v>788.477863438847</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="X4" t="n">
-        <v>788.477863438847</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.6852842953168</v>
+        <v>328.2753322811682</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>690.2330699327779</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C5" t="n">
-        <v>690.2330699327779</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>157.477756798422</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>956.6107264999558</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="W5" t="n">
-        <v>956.6107264999558</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="X5" t="n">
-        <v>956.6107264999558</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.2330699327779</v>
+        <v>560.7979242836798</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572.4823173146365</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>452.2778269897948</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3434173285435</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278862</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4679,19 +4679,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>572.4823173146365</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>572.4823173146365</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>572.4823173146365</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2137498124562</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227045</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>997.6546773221759</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>997.6546773221759</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>997.6546773221759</v>
       </c>
       <c r="U7" t="n">
-        <v>563.0088271968609</v>
+        <v>997.6546773221759</v>
       </c>
       <c r="V7" t="n">
-        <v>563.0088271968609</v>
+        <v>997.6546773221759</v>
       </c>
       <c r="W7" t="n">
-        <v>563.0088271968609</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="X7" t="n">
-        <v>563.0088271968609</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.8622146426959</v>
+        <v>503.2874698569806</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.461937729943</v>
+        <v>1503.265459468015</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.461937729943</v>
+        <v>1503.265459468015</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.196239123193</v>
+        <v>1503.265459468015</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>1117.477206869771</v>
       </c>
       <c r="F8" t="n">
-        <v>837.422081735341</v>
+        <v>706.4913020801632</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270082</v>
+        <v>290.7850800718304</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467167</v>
       </c>
       <c r="K8" t="n">
         <v>442.1757437607413</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940593</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.56462266116</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999206</v>
+        <v>2229.499872999209</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999206</v>
+        <v>1876.731217729095</v>
       </c>
       <c r="X8" t="n">
-        <v>2229.499872999206</v>
+        <v>1503.265459468015</v>
       </c>
       <c r="Y8" t="n">
-        <v>2229.499872999206</v>
+        <v>1503.265459468015</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010714</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199444</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586931</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532376</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801226</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763108</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444705</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148171</v>
+        <v>613.7598241331807</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482977</v>
+        <v>908.2958075666617</v>
       </c>
       <c r="M9" t="n">
-        <v>969.5098028435118</v>
+        <v>1271.362276040963</v>
       </c>
       <c r="N9" t="n">
-        <v>1356.59420531608</v>
+        <v>1658.446678513531</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500917</v>
+        <v>1990.33348850092</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930541</v>
+        <v>2237.368846930544</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2424.826280251695</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2230.816477685344</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175157</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519828</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791626</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586093</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821139</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.3144693606509</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>111.378286432744</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>111.378286432744</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>111.378286432744</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>111.378286432744</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="G10" t="n">
-        <v>111.378286432744</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H10" t="n">
-        <v>111.378286432744</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380115</v>
+        <v>76.63468308380132</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412617</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634451</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108856</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276034984</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>569.7316393976115</v>
+        <v>1381.084657271474</v>
       </c>
       <c r="W10" t="n">
-        <v>280.3144693606509</v>
+        <v>1091.667487234514</v>
       </c>
       <c r="X10" t="n">
-        <v>280.3144693606509</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.3144693606509</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5594,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.8410298377091</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>371.0633721867255</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>203.8672729016054</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.271624709496</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.282073811479</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679489</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>862.3241387471426</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>712.2074993348068</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>564.2944057524137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650996</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995194</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990608</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,43 +6451,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492579</v>
@@ -6496,7 +6496,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>960.4603932171079</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.6678140735778</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
@@ -6712,25 +6712,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1903.498031322342</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1648.813543116455</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1359.396373079494</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6916,37 +6916,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6955,19 +6955,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3028.451182298829</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>2859.514999370922</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2709.398359958587</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305901</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650099</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444212</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3658.881777170616</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3430.892226272599</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>3210.099647129069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7253,19 +7253,19 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,19 +7408,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7438,13 +7438,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429802</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.885660588918</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7684,16 +7684,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>888.6771326738542</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>738.5604932615184</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>590.6473996791253</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>443.7574521812149</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>276.5613528960949</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>134.849521738293</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.054359575531</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432001</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583211</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140413</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775127</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544042</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>192.7716614458167</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>13.96120870799353</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>304.901488078231</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348528</v>
+        <v>20.98618304348518</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>176.3785887617855</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>92.15795203868061</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>31.34460909112669</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>199.9223080965398</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>66.73277020259215</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>47.43691740069013</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>43.72409101823357</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9610556929589</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>50.61478728573132</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.8503182118945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>40.64330621514762</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>651517.2655955006</v>
+        <v>651517.2655955005</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>656768.5545531779</v>
+        <v>656768.554553178</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635907.662164964</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176759</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.934697756</v>
@@ -26355,7 +26355,7 @@
         <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606949</v>
+        <v>507909.2320606944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911416</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101716</v>
+        <v>95270.23779101751</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501122</v>
+        <v>140465.251750112</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26444,22 +26444,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.0322517936</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179347</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179343</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-193847.4237968028</v>
       </c>
       <c r="C6" t="n">
-        <v>486240.5567943899</v>
+        <v>486240.5567943905</v>
       </c>
       <c r="D6" t="n">
-        <v>176467.5986338078</v>
+        <v>176467.5986338074</v>
       </c>
       <c r="E6" t="n">
-        <v>166769.1405613603</v>
+        <v>166421.7613070038</v>
       </c>
       <c r="F6" t="n">
-        <v>674678.3726220551</v>
+        <v>674330.9933676987</v>
       </c>
       <c r="G6" t="n">
-        <v>674678.3726220552</v>
+        <v>674330.9933676984</v>
       </c>
       <c r="H6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.9933676982</v>
       </c>
       <c r="I6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="J6" t="n">
-        <v>605679.2182029409</v>
+        <v>605331.8389485839</v>
       </c>
       <c r="K6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.9933676985</v>
       </c>
       <c r="L6" t="n">
-        <v>579408.1348310378</v>
+        <v>579060.7555766809</v>
       </c>
       <c r="M6" t="n">
-        <v>541960.3969265858</v>
+        <v>541613.0176722292</v>
       </c>
       <c r="N6" t="n">
-        <v>674678.3726220552</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="O6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.993367698</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.3726220555</v>
+        <v>674330.9933676985</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627821</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856949</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933031</v>
+        <v>319.6474457933039</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788923</v>
+        <v>434.2730407788919</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084188</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084188</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067077</v>
       </c>
       <c r="H2" t="n">
-        <v>89.05895538813911</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>96.53078114516687</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>144.5518065716806</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>73.52813067206061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>1.256301721320085</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>230.4899128991269</v>
+        <v>255.116811905742</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>53.70605356672247</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225434</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>70.87576862665374</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.53950692347144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.0662857469107</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>63.85538760397543</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164536878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164533631</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>45.25088882947002</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>201.7919240020285</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30222,10 +30222,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30276,22 +30276,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.028473857802275e-12</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763186</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359934</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.7602577525071</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307888</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983016</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140464</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571277</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617162</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152209</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.835446451908</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.095024154133929</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415875</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307408</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.194100917942745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.09183958618650326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N12" t="n">
-        <v>578.1083652167725</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33973,7 +33973,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312099</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34783,13 +34783,13 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572285</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181794</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204533</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>217.43861174566</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.7491718087207</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559162</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.337407809102</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.5361733430321</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234272</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>188.9976037816845</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758573</v>
+        <v>379.2332739216742</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772535</v>
       </c>
       <c r="M9" t="n">
-        <v>380.695015247691</v>
+        <v>366.7338065396979</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318877</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856941</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804281</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961973</v>
+        <v>326.4584983961975</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873305</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N12" t="n">
-        <v>446.7666531334392</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37621,7 +37621,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867654</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3816389.918491595</v>
+        <v>3818150.448794381</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7402984.374560699</v>
+        <v>7402984.374560698</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.3187035390023</v>
+        <v>21.31870353900208</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>61.11429931023407</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>45.01451643888132</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.93957251842232</v>
       </c>
       <c r="S4" t="n">
-        <v>203.4628625222737</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.63544656439291</v>
+        <v>212.568965117905</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>109.3170492634404</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>28.33708868093411</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>56.6288342570102</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>192.8381113748522</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>237.1780866163251</v>
+        <v>171.4120023616714</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>18.4733505966156</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098993</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>23.91773138700754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>23.91773138700864</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>129.719450923318</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>108.9501037550972</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881282</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695592</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881282</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7122866515516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833862</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881287</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.632153562788</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.0479880037678</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="C2" t="n">
-        <v>166.0479880037678</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0479880037678</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037678</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="F2" t="n">
-        <v>159.1024872545643</v>
+        <v>159.1024872545642</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358412</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709457</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709457</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709457</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709457</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709457</v>
+        <v>432.4256445709455</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.5440004277928</v>
+        <v>215.5007285854943</v>
       </c>
       <c r="C3" t="n">
-        <v>660.5440004277928</v>
+        <v>215.5007285854943</v>
       </c>
       <c r="D3" t="n">
-        <v>511.6095907665415</v>
+        <v>66.56631892424303</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>66.56631892424303</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>826.7196740428378</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>591.5675658110952</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>591.5675658110952</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>383.7160656055623</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478608</v>
+        <v>383.7160656055623</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="C4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="D4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="E4" t="n">
-        <v>328.2753322811682</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434484</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1031.684234633881</v>
       </c>
       <c r="S4" t="n">
-        <v>849.337477054233</v>
+        <v>1031.684234633881</v>
       </c>
       <c r="T4" t="n">
-        <v>849.337477054233</v>
+        <v>1031.684234633881</v>
       </c>
       <c r="U4" t="n">
-        <v>582.959820487055</v>
+        <v>1031.684234633881</v>
       </c>
       <c r="V4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="W4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="X4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
       <c r="Y4" t="n">
-        <v>328.2753322811682</v>
+        <v>776.9997464279937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C5" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165019</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,19 +4567,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>827.1755808508577</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="W5" t="n">
-        <v>827.1755808508577</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>131.5183722823835</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>131.5183722823835</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304907</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>801.3675279810718</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>547.1301712528702</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>339.2786710473374</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>131.5183722823835</v>
       </c>
     </row>
     <row r="7">
@@ -4707,22 +4707,22 @@
         <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>184.234647516738</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4731,37 +4731,37 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>997.6546773221759</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>997.6546773221759</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="T7" t="n">
-        <v>997.6546773221759</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="U7" t="n">
-        <v>997.6546773221759</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="V7" t="n">
-        <v>997.6546773221759</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="W7" t="n">
         <v>731.2770207549979</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.265459468015</v>
+        <v>1503.265459468012</v>
       </c>
       <c r="C8" t="n">
-        <v>1503.265459468015</v>
+        <v>1503.265459468012</v>
       </c>
       <c r="D8" t="n">
-        <v>1503.265459468015</v>
+        <v>1503.265459468012</v>
       </c>
       <c r="E8" t="n">
-        <v>1117.477206869771</v>
+        <v>1117.477206869768</v>
       </c>
       <c r="F8" t="n">
-        <v>706.4913020801632</v>
+        <v>706.49130208016</v>
       </c>
       <c r="G8" t="n">
-        <v>290.7850800718304</v>
+        <v>290.7850800718272</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467167</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607408</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045922</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999209</v>
+        <v>2229.499872999206</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729095</v>
+        <v>1876.731217729092</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468015</v>
+        <v>1503.265459468012</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.265459468015</v>
+        <v>1503.265459468012</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010714</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199444</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586931</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532376</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801226</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763108</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>69.87120530444705</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>238.3188829507231</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331807</v>
+        <v>422.9158793018219</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666617</v>
+        <v>776.7040495714555</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040963</v>
+        <v>1139.770518045756</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513531</v>
+        <v>1526.854920518324</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.33348850092</v>
+        <v>1858.741730505713</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930544</v>
+        <v>2421.055229888875</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2536.272628442619</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251695</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685344</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519828</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274017</v>
+        <v>689.2264432607426</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>520.2902603328357</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871591</v>
+        <v>370.1736209205</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>222.2605273381068</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068556</v>
+        <v>75.37057984019648</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380118</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.385004336891</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904022</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271474</v>
+        <v>1381.084657271473</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234514</v>
+        <v>1091.667487234512</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>1091.667487234512</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576414</v>
+        <v>870.8749080909823</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>815.9830526793647</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>665.866413267029</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>517.9533196846359</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>371.0633721867255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>203.8672729016054</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6004,19 +6004,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,7 +6320,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,16 +6478,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492579</v>
@@ -6496,7 +6496,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6727,16 +6727,16 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908938</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,64 +6922,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797747</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
@@ -7411,16 +7411,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,7 +7429,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7684,16 +7684,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797189</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127255</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658824</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775127</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>5.262887399594689</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458167</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>59.85069377389181</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348518</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37.52737017530981</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>31.34460909112669</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>84.77391660561915</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788524</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>72.1196935303856</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>125.50548976104</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>651517.2655955005</v>
+        <v>651517.2655955006</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>656768.554553178</v>
+        <v>656768.5545531779</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.6621649642</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.662164964</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658078</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606944</v>
+        <v>507909.2320606952</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101751</v>
+        <v>95270.23779101724</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.251750112</v>
+        <v>140465.2517501122</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26438,28 +26438,28 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>11167.03225179345</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11167.03225179345</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.0322517936</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179347</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179349</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179347</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179343</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193847.4237968028</v>
+        <v>-193847.4237968024</v>
       </c>
       <c r="C6" t="n">
-        <v>486240.5567943905</v>
+        <v>486240.5567943904</v>
       </c>
       <c r="D6" t="n">
-        <v>176467.5986338074</v>
+        <v>176467.5986338077</v>
       </c>
       <c r="E6" t="n">
-        <v>166421.7613070038</v>
+        <v>166734.4026359242</v>
       </c>
       <c r="F6" t="n">
-        <v>674330.9933676987</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="G6" t="n">
-        <v>674330.9933676984</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="H6" t="n">
-        <v>674330.9933676982</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="I6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="J6" t="n">
-        <v>605331.8389485839</v>
+        <v>605644.4802775057</v>
       </c>
       <c r="K6" t="n">
-        <v>674330.9933676985</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="L6" t="n">
-        <v>579060.7555766809</v>
+        <v>579373.3969056022</v>
       </c>
       <c r="M6" t="n">
-        <v>541613.0176722292</v>
+        <v>541925.6590011503</v>
       </c>
       <c r="N6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966198</v>
       </c>
       <c r="O6" t="n">
-        <v>674330.993367698</v>
+        <v>674643.6346966198</v>
       </c>
       <c r="P6" t="n">
-        <v>674330.9933676985</v>
+        <v>674643.6346966196</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.742744338726569e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,28 +26795,28 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856949</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.960767887510416e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933039</v>
+        <v>319.6474457933035</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788919</v>
+        <v>434.2730407788927</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.426810084188</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139537</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139534</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139537</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>391.5154711067077</v>
+        <v>391.5154711067079</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>96.53078114516687</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100.0546959545026</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>104.5650303652416</v>
       </c>
       <c r="S4" t="n">
-        <v>1.256301721320085</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>255.116811905742</v>
+        <v>115.1832933522299</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.12801630119839</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>177.4358965225434</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.87576862665374</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>11.88105286874153</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63.85538760397543</v>
+        <v>129.6214718586291</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164536878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164533631</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>142.3895222246987</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>201.7919240020285</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8.300560239149491e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,10 +30222,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30276,22 +30276,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30468,16 +30468,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30513,10 +30513,10 @@
         <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.028473857802275e-12</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-7.984589974412538e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162539</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572285</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>188.9976037816844</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216742</v>
+        <v>186.4616124758574</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>357.361788151145</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>567.9934337203654</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783555</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>508.1286233929767</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37311,7 +37311,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462666</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
